--- a/pred_ohlcv/54_21/2019-10-07 LINK ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-07 LINK ohlcv.xlsx
@@ -626,7 +626,7 @@
         <v>11085.3560922774</v>
       </c>
       <c r="H9">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -678,7 +678,7 @@
         <v>12627.6295579024</v>
       </c>
       <c r="H11">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>12481.81465790241</v>
       </c>
       <c r="H12">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>13021.7944579024</v>
       </c>
       <c r="H13">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>14003.8738579024</v>
       </c>
       <c r="H14">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>14003.8738579024</v>
       </c>
       <c r="H15">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>11085.5016579024</v>
       </c>
       <c r="H16">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>11085.5016579024</v>
       </c>
       <c r="H17">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>11549.28735790241</v>
       </c>
       <c r="H18">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>11630.9690579024</v>
       </c>
       <c r="H19">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>5815.344457902404</v>
       </c>
       <c r="H20">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>5815.344457902404</v>
       </c>
       <c r="H21">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>5788.006657902404</v>
       </c>
       <c r="H22">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>5917.407657902404</v>
       </c>
       <c r="H23">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>5917.407657902404</v>
       </c>
       <c r="H24">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>5917.407657902404</v>
       </c>
       <c r="H25">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>3578.304557902404</v>
       </c>
       <c r="H26">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>9388.304557902404</v>
       </c>
       <c r="H27">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>11220.27857766125</v>
       </c>
       <c r="H28">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>11171.45617766125</v>
       </c>
       <c r="H29">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>11171.45617766125</v>
       </c>
       <c r="H30">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>11171.45617766125</v>
       </c>
       <c r="H31">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>11341.63567766125</v>
       </c>
       <c r="H32">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>10674.46317766126</v>
       </c>
       <c r="H36">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>10675.77647766125</v>
       </c>
       <c r="H37">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>10676.77647766125</v>
       </c>
       <c r="H38">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>10728.07647766125</v>
       </c>
       <c r="H39">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>10697.91647766125</v>
       </c>
       <c r="H40">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>10424.21017766125</v>
       </c>
       <c r="H41">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>9381.010077661254</v>
       </c>
       <c r="H42">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>9668.759477661255</v>
       </c>
       <c r="H43">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>9668.458977661256</v>
       </c>
       <c r="H44">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>10829.68417766126</v>
       </c>
       <c r="H45">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>11334.62337766126</v>
       </c>
       <c r="H46">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>11334.32287766126</v>
       </c>
       <c r="H47">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>11156.92267766126</v>
       </c>
       <c r="H48">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>11143.87947766126</v>
       </c>
       <c r="H49">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>11364.36887766126</v>
       </c>
       <c r="H50">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>11364.26877766126</v>
       </c>
       <c r="H51">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>11382.83897766126</v>
       </c>
       <c r="H52">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>11335.19617766126</v>
       </c>
       <c r="H53">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>11165.16167766126</v>
       </c>
       <c r="H54">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>11552.62510578626</v>
       </c>
       <c r="H62">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>11431.73780578626</v>
       </c>
       <c r="H64">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>13878.60210578626</v>
       </c>
       <c r="H68">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>13856.01210578626</v>
       </c>
       <c r="H69">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>13791.49910578626</v>
       </c>
       <c r="H70">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>13772.73910578626</v>
       </c>
       <c r="H71">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>13793.89480578626</v>
       </c>
       <c r="H72">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>13781.77840578626</v>
       </c>
       <c r="H73">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>16281.77840578626</v>
       </c>
       <c r="H74">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>16268.59840578626</v>
       </c>
       <c r="H75">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>16833.78350578625</v>
       </c>
       <c r="H76">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>42521.77150578625</v>
       </c>
       <c r="H100">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>42390.23350578625</v>
       </c>
       <c r="H101">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>42393.43350578625</v>
       </c>
       <c r="H102">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>46360.25540578625</v>
       </c>
       <c r="H103">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>48080.55360578625</v>
       </c>
       <c r="H104">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>48080.55360578625</v>
       </c>
       <c r="H105">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>48158.87190578625</v>
       </c>
       <c r="H106">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>48158.87190578625</v>
       </c>
       <c r="H107">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>48405.97300578625</v>
       </c>
       <c r="H108">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>49254.00740578624</v>
       </c>
       <c r="H109">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>70081.80640578625</v>
       </c>
       <c r="H110">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>74084.15020578625</v>
       </c>
       <c r="H111">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>90392.86300578625</v>
       </c>
       <c r="H112">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>99424.54512852873</v>
       </c>
       <c r="H113">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>106749.7581285287</v>
       </c>
       <c r="H114">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>117440.7235370008</v>
       </c>
       <c r="H115">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>119376.556393343</v>
       </c>
       <c r="H116">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>124406.139093343</v>
       </c>
       <c r="H117">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>98466.06772787347</v>
       </c>
       <c r="H124">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>82894.08630354915</v>
       </c>
       <c r="H138">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>83148.40640354915</v>
       </c>
       <c r="H139">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>83015.70260354914</v>
       </c>
       <c r="H140">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>83091.07470354914</v>
       </c>
       <c r="H141">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>82895.24820354914</v>
       </c>
       <c r="H142">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>80663.55260354913</v>
       </c>
       <c r="H143">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>82352.91930354913</v>
       </c>
       <c r="H144">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>82352.91930354913</v>
       </c>
       <c r="H145">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>81704.59070354914</v>
       </c>
       <c r="H146">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>82881.43150354915</v>
       </c>
       <c r="H147">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>85178.94541255699</v>
       </c>
       <c r="H176">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>84013.60801255699</v>
       </c>
       <c r="H177">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>80980.97611255699</v>
       </c>
       <c r="H178">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -6242,7 +6242,7 @@
         <v>93465.25109364215</v>
       </c>
       <c r="H225">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -6268,7 +6268,7 @@
         <v>94026.19105369446</v>
       </c>
       <c r="H226">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -6294,7 +6294,7 @@
         <v>96469.33044389855</v>
       </c>
       <c r="H227">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -6320,7 +6320,7 @@
         <v>96469.43044389856</v>
       </c>
       <c r="H228">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -6346,7 +6346,7 @@
         <v>96469.43044389856</v>
       </c>
       <c r="H229">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -6372,7 +6372,7 @@
         <v>94964.91994389855</v>
       </c>
       <c r="H230">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -6398,7 +6398,7 @@
         <v>104048.2581438986</v>
       </c>
       <c r="H231">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -6944,7 +6944,7 @@
         <v>96574.75945038952</v>
       </c>
       <c r="H252">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -6970,7 +6970,7 @@
         <v>96281.10775038952</v>
       </c>
       <c r="H253">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -6996,7 +6996,7 @@
         <v>96328.64385038952</v>
       </c>
       <c r="H254">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -7048,7 +7048,7 @@
         <v>94483.76736074477</v>
       </c>
       <c r="H256">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -7074,7 +7074,7 @@
         <v>94467.76736074477</v>
       </c>
       <c r="H257">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -7100,7 +7100,7 @@
         <v>94318.09766074477</v>
       </c>
       <c r="H258">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -7126,7 +7126,7 @@
         <v>94298.27226074476</v>
       </c>
       <c r="H259">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -7152,7 +7152,7 @@
         <v>93292.98186074477</v>
       </c>
       <c r="H260">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -7178,7 +7178,7 @@
         <v>93327.14346074477</v>
       </c>
       <c r="H261">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -7204,7 +7204,7 @@
         <v>93075.42956074477</v>
       </c>
       <c r="H262">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -10428,7 +10428,7 @@
         <v>101461.5220450797</v>
       </c>
       <c r="H386">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="387" spans="1:8">
@@ -10454,7 +10454,7 @@
         <v>101219.6012450797</v>
       </c>
       <c r="H387">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="388" spans="1:8">
@@ -11884,7 +11884,7 @@
         <v>86425.09368280081</v>
       </c>
       <c r="H442">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="443" spans="1:8">
@@ -11910,7 +11910,7 @@
         <v>84100.85618280081</v>
       </c>
       <c r="H443">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="444" spans="1:8">
@@ -11936,7 +11936,7 @@
         <v>84195.55668280082</v>
       </c>
       <c r="H444">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="445" spans="1:8">
@@ -11962,7 +11962,7 @@
         <v>84408.15328280082</v>
       </c>
       <c r="H445">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="446" spans="1:8">
@@ -11988,7 +11988,7 @@
         <v>84518.55328280081</v>
       </c>
       <c r="H446">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="447" spans="1:8">
@@ -12014,7 +12014,7 @@
         <v>84518.55328280081</v>
       </c>
       <c r="H447">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="448" spans="1:8">
@@ -12040,7 +12040,7 @@
         <v>83402.78068280082</v>
       </c>
       <c r="H448">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="449" spans="1:8">
@@ -12066,7 +12066,7 @@
         <v>83402.78068280082</v>
       </c>
       <c r="H449">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="450" spans="1:8">
@@ -12092,7 +12092,7 @@
         <v>83402.78068280082</v>
       </c>
       <c r="H450">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="451" spans="1:8">
@@ -12118,7 +12118,7 @@
         <v>83369.73628280082</v>
       </c>
       <c r="H451">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="452" spans="1:8">
@@ -12144,7 +12144,7 @@
         <v>83620.29308280082</v>
       </c>
       <c r="H452">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="453" spans="1:8">
@@ -12170,7 +12170,7 @@
         <v>82432.75018280082</v>
       </c>
       <c r="H453">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="454" spans="1:8">
@@ -12196,7 +12196,7 @@
         <v>79823.54578280082</v>
       </c>
       <c r="H454">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="455" spans="1:8">
@@ -12222,7 +12222,7 @@
         <v>82350.49428280082</v>
       </c>
       <c r="H455">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="456" spans="1:8">
@@ -12248,7 +12248,7 @@
         <v>82580.22268280083</v>
       </c>
       <c r="H456">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="457" spans="1:8">
@@ -12274,7 +12274,7 @@
         <v>82580.22268280083</v>
       </c>
       <c r="H457">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="458" spans="1:8">
@@ -12300,7 +12300,7 @@
         <v>82704.50188280083</v>
       </c>
       <c r="H458">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="459" spans="1:8">
@@ -12326,7 +12326,7 @@
         <v>82642.60818280083</v>
       </c>
       <c r="H459">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="460" spans="1:8">
@@ -12352,7 +12352,7 @@
         <v>82914.91428280083</v>
       </c>
       <c r="H460">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="461" spans="1:8">
@@ -12378,7 +12378,7 @@
         <v>83000.81688280083</v>
       </c>
       <c r="H461">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="462" spans="1:8">
@@ -13236,7 +13236,7 @@
         <v>91307.11447904496</v>
       </c>
       <c r="H494">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="495" spans="1:8">
@@ -13392,7 +13392,7 @@
         <v>89527.44328007102</v>
       </c>
       <c r="H500">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="501" spans="1:8">
@@ -13418,7 +13418,7 @@
         <v>89663.71078007102</v>
       </c>
       <c r="H501">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="502" spans="1:8">
@@ -13444,7 +13444,7 @@
         <v>89529.74458007103</v>
       </c>
       <c r="H502">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="503" spans="1:8">
@@ -13470,7 +13470,7 @@
         <v>153786.960080071</v>
       </c>
       <c r="H503">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="504" spans="1:8">
@@ -14146,7 +14146,7 @@
         <v>670291.711907395</v>
       </c>
       <c r="H529">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="530" spans="1:8">
@@ -14406,7 +14406,7 @@
         <v>686235.2605685687</v>
       </c>
       <c r="H539">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="540" spans="1:8">
@@ -14432,7 +14432,7 @@
         <v>732587.0216693818</v>
       </c>
       <c r="H540">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="541" spans="1:8">
@@ -14458,7 +14458,7 @@
         <v>770419.4029693818</v>
       </c>
       <c r="H541">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="542" spans="1:8">
@@ -14484,7 +14484,7 @@
         <v>770496.6978693818</v>
       </c>
       <c r="H542">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="543" spans="1:8">
@@ -14510,7 +14510,7 @@
         <v>770655.8799693817</v>
       </c>
       <c r="H543">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="544" spans="1:8">
@@ -14536,7 +14536,7 @@
         <v>767519.7912693818</v>
       </c>
       <c r="H544">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="545" spans="1:8">
@@ -14562,7 +14562,7 @@
         <v>766188.3869693817</v>
       </c>
       <c r="H545">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="546" spans="1:8">
@@ -14588,7 +14588,7 @@
         <v>764012.9569693817</v>
       </c>
       <c r="H546">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="547" spans="1:8">
@@ -14614,7 +14614,7 @@
         <v>764181.3626991533</v>
       </c>
       <c r="H547">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="548" spans="1:8">
@@ -14666,7 +14666,7 @@
         <v>769784.0091014743</v>
       </c>
       <c r="H549">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="550" spans="1:8">
@@ -14692,7 +14692,7 @@
         <v>769696.7352014743</v>
       </c>
       <c r="H550">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="551" spans="1:8">
@@ -14718,7 +14718,7 @@
         <v>768302.7203014743</v>
       </c>
       <c r="H551">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="552" spans="1:8">
@@ -14744,7 +14744,7 @@
         <v>768358.6604014743</v>
       </c>
       <c r="H552">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="553" spans="1:8">
@@ -14796,7 +14796,7 @@
         <v>743753.4781014743</v>
       </c>
       <c r="H554">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="555" spans="1:8">
@@ -14822,7 +14822,7 @@
         <v>743753.4781014743</v>
       </c>
       <c r="H555">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="556" spans="1:8">
@@ -14848,7 +14848,7 @@
         <v>710840.4892014744</v>
       </c>
       <c r="H556">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="557" spans="1:8">
@@ -14874,7 +14874,7 @@
         <v>710840.4892014744</v>
       </c>
       <c r="H557">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="558" spans="1:8">
@@ -15134,7 +15134,7 @@
         <v>718159.5146014742</v>
       </c>
       <c r="H567">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="568" spans="1:8">
@@ -15160,7 +15160,7 @@
         <v>718043.5265014742</v>
       </c>
       <c r="H568">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="569" spans="1:8">
@@ -15212,7 +15212,7 @@
         <v>718493.6265014742</v>
       </c>
       <c r="H570">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="571" spans="1:8">
@@ -15628,7 +15628,7 @@
         <v>714123.6583014742</v>
       </c>
       <c r="H586">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="587" spans="1:8">
@@ -15836,7 +15836,7 @@
         <v>705304.8084014741</v>
       </c>
       <c r="H594">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="595" spans="1:8">
@@ -15862,7 +15862,7 @@
         <v>707031.1112014741</v>
       </c>
       <c r="H595">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="596" spans="1:8">
@@ -15888,7 +15888,7 @@
         <v>706394.0150014741</v>
       </c>
       <c r="H596">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="597" spans="1:8">
@@ -15914,7 +15914,7 @@
         <v>702636.2519014741</v>
       </c>
       <c r="H597">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="598" spans="1:8">
@@ -22440,7 +22440,7 @@
         <v>590269.5253402707</v>
       </c>
       <c r="H848">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="849" spans="1:8">
@@ -22466,7 +22466,7 @@
         <v>590096.3162402707</v>
       </c>
       <c r="H849">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="850" spans="1:8">
@@ -22492,7 +22492,7 @@
         <v>590259.8618402707</v>
       </c>
       <c r="H850">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="851" spans="1:8">
@@ -22518,7 +22518,7 @@
         <v>589945.1376402706</v>
       </c>
       <c r="H851">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="852" spans="1:8">
@@ -22544,7 +22544,7 @@
         <v>590367.3923402707</v>
       </c>
       <c r="H852">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="853" spans="1:8">
@@ -22570,7 +22570,7 @@
         <v>590367.3923402707</v>
       </c>
       <c r="H853">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="854" spans="1:8">
@@ -22596,7 +22596,7 @@
         <v>590360.7868402707</v>
       </c>
       <c r="H854">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="855" spans="1:8">
@@ -22622,7 +22622,7 @@
         <v>588279.3858443638</v>
       </c>
       <c r="H855">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="856" spans="1:8">
@@ -22648,7 +22648,7 @@
         <v>589894.7126443639</v>
       </c>
       <c r="H856">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="857" spans="1:8">
@@ -22674,7 +22674,7 @@
         <v>589576.7291443639</v>
       </c>
       <c r="H857">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="858" spans="1:8">
@@ -22700,7 +22700,7 @@
         <v>589562.3101443639</v>
       </c>
       <c r="H858">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="859" spans="1:8">
@@ -22726,7 +22726,7 @@
         <v>588413.2566198356</v>
       </c>
       <c r="H859">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="860" spans="1:8">
@@ -22752,7 +22752,7 @@
         <v>589666.0346953074</v>
       </c>
       <c r="H860">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="861" spans="1:8">
@@ -23194,7 +23194,7 @@
         <v>593749.5211804064</v>
       </c>
       <c r="H877">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="878" spans="1:8">
@@ -23220,7 +23220,7 @@
         <v>592787.7474804064</v>
       </c>
       <c r="H878">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="879" spans="1:8">
@@ -23246,7 +23246,7 @@
         <v>596650.8515804064</v>
       </c>
       <c r="H879">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="880" spans="1:8">
@@ -23272,7 +23272,7 @@
         <v>596650.8515804064</v>
       </c>
       <c r="H880">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="881" spans="1:8">
@@ -23298,7 +23298,7 @@
         <v>596650.8515804064</v>
       </c>
       <c r="H881">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="882" spans="1:8">
@@ -23324,7 +23324,7 @@
         <v>601840.7263804064</v>
       </c>
       <c r="H882">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="883" spans="1:8">
@@ -23350,7 +23350,7 @@
         <v>601840.7263804064</v>
       </c>
       <c r="H883">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="884" spans="1:8">
@@ -23376,7 +23376,7 @@
         <v>603568.549401827</v>
       </c>
       <c r="H884">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="885" spans="1:8">
@@ -23402,7 +23402,7 @@
         <v>604104.814301827</v>
       </c>
       <c r="H885">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="886" spans="1:8">
@@ -23428,7 +23428,7 @@
         <v>603856.441101827</v>
       </c>
       <c r="H886">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="887" spans="1:8">
@@ -23454,7 +23454,7 @@
         <v>603190.4020018269</v>
       </c>
       <c r="H887">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="888" spans="1:8">
@@ -23480,7 +23480,7 @@
         <v>603206.426301827</v>
       </c>
       <c r="H888">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="889" spans="1:8">
@@ -23506,7 +23506,7 @@
         <v>605206.5311018269</v>
       </c>
       <c r="H889">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="890" spans="1:8">
@@ -23532,7 +23532,7 @@
         <v>605179.5311018269</v>
       </c>
       <c r="H890">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="891" spans="1:8">
@@ -23558,7 +23558,7 @@
         <v>605124.6311018269</v>
       </c>
       <c r="H891">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="892" spans="1:8">
@@ -23766,7 +23766,7 @@
         <v>610256.0328881443</v>
       </c>
       <c r="H899">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="900" spans="1:8">
@@ -23792,7 +23792,7 @@
         <v>611617.7985881442</v>
       </c>
       <c r="H900">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="901" spans="1:8">
@@ -23818,7 +23818,7 @@
         <v>611617.7985881442</v>
       </c>
       <c r="H901">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="902" spans="1:8">
@@ -23844,7 +23844,7 @@
         <v>583118.7892118129</v>
       </c>
       <c r="H902">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="903" spans="1:8">
@@ -23870,7 +23870,7 @@
         <v>583518.7892118129</v>
       </c>
       <c r="H903">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="904" spans="1:8">
@@ -23896,7 +23896,7 @@
         <v>583649.5892118129</v>
       </c>
       <c r="H904">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="905" spans="1:8">
@@ -23922,7 +23922,7 @@
         <v>583649.5892118129</v>
       </c>
       <c r="H905">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="906" spans="1:8">
@@ -23948,7 +23948,7 @@
         <v>578962.814511813</v>
       </c>
       <c r="H906">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="907" spans="1:8">
@@ -23974,7 +23974,7 @@
         <v>579074.498111813</v>
       </c>
       <c r="H907">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="908" spans="1:8">
@@ -24000,7 +24000,7 @@
         <v>581035.7614117762</v>
       </c>
       <c r="H908">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="909" spans="1:8">
@@ -24026,7 +24026,7 @@
         <v>580476.2588117762</v>
       </c>
       <c r="H909">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="910" spans="1:8">
@@ -24052,7 +24052,7 @@
         <v>580476.2588117762</v>
       </c>
       <c r="H910">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="911" spans="1:8">
@@ -24078,7 +24078,7 @@
         <v>581054.8329117761</v>
       </c>
       <c r="H911">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="912" spans="1:8">
@@ -24104,7 +24104,7 @@
         <v>574595.5140117393</v>
       </c>
       <c r="H912">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="913" spans="1:8">
@@ -24130,7 +24130,7 @@
         <v>574672.4455117392</v>
       </c>
       <c r="H913">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="914" spans="1:8">
@@ -28030,7 +28030,7 @@
         <v>515538.2652349823</v>
       </c>
       <c r="H1063">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1064" spans="1:8">
@@ -28056,7 +28056,7 @@
         <v>508921.8315349823</v>
       </c>
       <c r="H1064">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1065" spans="1:8">
@@ -28082,7 +28082,7 @@
         <v>507946.0137349823</v>
       </c>
       <c r="H1065">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1066" spans="1:8">
@@ -28160,7 +28160,7 @@
         <v>508581.5152706273</v>
       </c>
       <c r="H1068">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1069" spans="1:8">
@@ -28186,7 +28186,7 @@
         <v>509080.2308706273</v>
       </c>
       <c r="H1069">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1070" spans="1:8">
@@ -28212,7 +28212,7 @@
         <v>507614.3713706273</v>
       </c>
       <c r="H1070">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1071" spans="1:8">
@@ -28238,7 +28238,7 @@
         <v>507601.2397706272</v>
       </c>
       <c r="H1071">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1072" spans="1:8">
@@ -28264,7 +28264,7 @@
         <v>508066.0397706272</v>
       </c>
       <c r="H1072">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1073" spans="1:8">
@@ -28290,7 +28290,7 @@
         <v>515031.0563706272</v>
       </c>
       <c r="H1073">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1074" spans="1:8">
@@ -28316,7 +28316,7 @@
         <v>522119.8587240322</v>
       </c>
       <c r="H1074">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1075" spans="1:8">
@@ -28342,7 +28342,7 @@
         <v>527590.9418240322</v>
       </c>
       <c r="H1075">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1076" spans="1:8">
@@ -28368,7 +28368,7 @@
         <v>532945.6369076329</v>
       </c>
       <c r="H1076">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1077" spans="1:8">
@@ -28394,7 +28394,7 @@
         <v>531834.656407633</v>
       </c>
       <c r="H1077">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1078" spans="1:8">
@@ -28420,7 +28420,7 @@
         <v>532546.6321076329</v>
       </c>
       <c r="H1078">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1079" spans="1:8">
@@ -28446,7 +28446,7 @@
         <v>532546.6321076329</v>
       </c>
       <c r="H1079">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1080" spans="1:8">
@@ -28472,7 +28472,7 @@
         <v>536148.2353076329</v>
       </c>
       <c r="H1080">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1081" spans="1:8">
@@ -28498,7 +28498,7 @@
         <v>537536.0973076329</v>
       </c>
       <c r="H1081">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1082" spans="1:8">
@@ -28524,7 +28524,7 @@
         <v>527517.440789831</v>
       </c>
       <c r="H1082">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1083" spans="1:8">
@@ -28550,7 +28550,7 @@
         <v>521753.001289831</v>
       </c>
       <c r="H1083">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1084" spans="1:8">
@@ -28576,7 +28576,7 @@
         <v>518712.669389831</v>
       </c>
       <c r="H1084">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1085" spans="1:8">
@@ -28602,7 +28602,7 @@
         <v>520268.9868815689</v>
       </c>
       <c r="H1085">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1086" spans="1:8">
@@ -28628,7 +28628,7 @@
         <v>522442.3760065156</v>
       </c>
       <c r="H1086">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1087" spans="1:8">
@@ -28654,7 +28654,7 @@
         <v>526835.9549815689</v>
       </c>
       <c r="H1087">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1088" spans="1:8">
@@ -28680,7 +28680,7 @@
         <v>527799.3374815688</v>
       </c>
       <c r="H1088">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1089" spans="1:8">
@@ -28706,7 +28706,7 @@
         <v>523268.3614815688</v>
       </c>
       <c r="H1089">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1090" spans="1:8">
@@ -28732,7 +28732,7 @@
         <v>522562.8423815688</v>
       </c>
       <c r="H1090">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1091" spans="1:8">
@@ -28758,7 +28758,7 @@
         <v>525324.501000608</v>
       </c>
       <c r="H1091">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1092" spans="1:8">
@@ -28784,7 +28784,7 @@
         <v>524845.223800608</v>
       </c>
       <c r="H1092">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/pred_ohlcv/54_21/2019-10-07 LINK ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-07 LINK ohlcv.xlsx
@@ -626,7 +626,7 @@
         <v>11085.3560922774</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>14668.7970579024</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>12627.6295579024</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>12481.81465790241</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>13021.7944579024</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>14003.8738579024</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>14003.8738579024</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>11085.5016579024</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>11085.5016579024</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>11549.28735790241</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>11630.9690579024</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>5815.344457902404</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>5815.344457902404</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>5788.006657902404</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>5917.407657902404</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>5917.407657902404</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>5917.407657902404</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>3578.304557902404</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>9388.304557902404</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>11220.27857766125</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>11171.45617766125</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>11171.45617766125</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>11171.45617766125</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>11341.63567766125</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>10684.99817766125</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>10675.77647766125</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>10676.77647766125</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>10728.07647766125</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>10697.91647766125</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>10424.21017766125</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>9381.010077661254</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>9668.759477661255</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>9668.458977661256</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>10829.68417766126</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>11334.62337766126</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>11334.32287766126</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>11156.92267766126</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>11143.87947766126</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>11364.36887766126</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>11364.26877766126</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>11382.83897766126</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>11335.19617766126</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>11165.16167766126</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>11552.62510578626</v>
       </c>
       <c r="H62">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>11431.73780578626</v>
       </c>
       <c r="H64">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>13856.01210578626</v>
       </c>
       <c r="H69">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>42521.77150578625</v>
       </c>
       <c r="H100">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>42390.23350578625</v>
       </c>
       <c r="H101">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>42393.43350578625</v>
       </c>
       <c r="H102">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>46360.25540578625</v>
       </c>
       <c r="H103">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>48080.55360578625</v>
       </c>
       <c r="H104">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>48080.55360578625</v>
       </c>
       <c r="H105">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>48158.87190578625</v>
       </c>
       <c r="H106">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>48158.87190578625</v>
       </c>
       <c r="H107">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>48405.97300578625</v>
       </c>
       <c r="H108">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>49254.00740578624</v>
       </c>
       <c r="H109">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>70081.80640578625</v>
       </c>
       <c r="H110">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>74084.15020578625</v>
       </c>
       <c r="H111">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>90392.86300578625</v>
       </c>
       <c r="H112">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>99424.54512852873</v>
       </c>
       <c r="H113">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>106749.7581285287</v>
       </c>
       <c r="H114">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>117440.7235370008</v>
       </c>
       <c r="H115">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>119376.556393343</v>
       </c>
       <c r="H116">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>124406.139093343</v>
       </c>
       <c r="H117">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>98466.06772787347</v>
       </c>
       <c r="H124">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>82894.08630354915</v>
       </c>
       <c r="H138">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>83148.40640354915</v>
       </c>
       <c r="H139">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>83015.70260354914</v>
       </c>
       <c r="H140">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>83091.07470354914</v>
       </c>
       <c r="H141">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>82895.24820354914</v>
       </c>
       <c r="H142">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>80663.55260354913</v>
       </c>
       <c r="H143">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>82352.91930354913</v>
       </c>
       <c r="H144">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>82352.91930354913</v>
       </c>
       <c r="H145">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>81704.59070354914</v>
       </c>
       <c r="H146">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>82881.43150354915</v>
       </c>
       <c r="H147">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>85178.94541255699</v>
       </c>
       <c r="H176">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>84013.60801255699</v>
       </c>
       <c r="H177">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>80980.97611255699</v>
       </c>
       <c r="H178">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -6242,7 +6242,7 @@
         <v>93465.25109364215</v>
       </c>
       <c r="H225">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -6268,7 +6268,7 @@
         <v>94026.19105369446</v>
       </c>
       <c r="H226">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -6294,7 +6294,7 @@
         <v>96469.33044389855</v>
       </c>
       <c r="H227">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -6320,7 +6320,7 @@
         <v>96469.43044389856</v>
       </c>
       <c r="H228">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -6346,7 +6346,7 @@
         <v>96469.43044389856</v>
       </c>
       <c r="H229">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -6372,7 +6372,7 @@
         <v>94964.91994389855</v>
       </c>
       <c r="H230">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -6398,7 +6398,7 @@
         <v>104048.2581438986</v>
       </c>
       <c r="H231">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -6944,7 +6944,7 @@
         <v>96574.75945038952</v>
       </c>
       <c r="H252">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -6970,7 +6970,7 @@
         <v>96281.10775038952</v>
       </c>
       <c r="H253">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -6996,7 +6996,7 @@
         <v>96328.64385038952</v>
       </c>
       <c r="H254">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -7048,7 +7048,7 @@
         <v>94483.76736074477</v>
       </c>
       <c r="H256">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -7074,7 +7074,7 @@
         <v>94467.76736074477</v>
       </c>
       <c r="H257">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -7100,7 +7100,7 @@
         <v>94318.09766074477</v>
       </c>
       <c r="H258">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -7126,7 +7126,7 @@
         <v>94298.27226074476</v>
       </c>
       <c r="H259">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -7152,7 +7152,7 @@
         <v>93292.98186074477</v>
       </c>
       <c r="H260">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -7178,7 +7178,7 @@
         <v>93327.14346074477</v>
       </c>
       <c r="H261">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -7204,7 +7204,7 @@
         <v>93075.42956074477</v>
       </c>
       <c r="H262">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -10428,7 +10428,7 @@
         <v>101461.5220450797</v>
       </c>
       <c r="H386">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="387" spans="1:8">
@@ -10454,7 +10454,7 @@
         <v>101219.6012450797</v>
       </c>
       <c r="H387">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="388" spans="1:8">
@@ -11884,7 +11884,7 @@
         <v>86425.09368280081</v>
       </c>
       <c r="H442">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="443" spans="1:8">
@@ -11910,7 +11910,7 @@
         <v>84100.85618280081</v>
       </c>
       <c r="H443">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="444" spans="1:8">
@@ -11936,7 +11936,7 @@
         <v>84195.55668280082</v>
       </c>
       <c r="H444">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="445" spans="1:8">
@@ -11962,7 +11962,7 @@
         <v>84408.15328280082</v>
       </c>
       <c r="H445">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="446" spans="1:8">
@@ -11988,7 +11988,7 @@
         <v>84518.55328280081</v>
       </c>
       <c r="H446">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="447" spans="1:8">
@@ -12014,7 +12014,7 @@
         <v>84518.55328280081</v>
       </c>
       <c r="H447">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="448" spans="1:8">
@@ -12040,7 +12040,7 @@
         <v>83402.78068280082</v>
       </c>
       <c r="H448">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="449" spans="1:8">
@@ -12066,7 +12066,7 @@
         <v>83402.78068280082</v>
       </c>
       <c r="H449">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="450" spans="1:8">
@@ -12092,7 +12092,7 @@
         <v>83402.78068280082</v>
       </c>
       <c r="H450">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="451" spans="1:8">
@@ -12118,7 +12118,7 @@
         <v>83369.73628280082</v>
       </c>
       <c r="H451">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="452" spans="1:8">
@@ -12144,7 +12144,7 @@
         <v>83620.29308280082</v>
       </c>
       <c r="H452">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="453" spans="1:8">
@@ -12170,7 +12170,7 @@
         <v>82432.75018280082</v>
       </c>
       <c r="H453">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="454" spans="1:8">
@@ -12196,7 +12196,7 @@
         <v>79823.54578280082</v>
       </c>
       <c r="H454">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="455" spans="1:8">
@@ -12222,7 +12222,7 @@
         <v>82350.49428280082</v>
       </c>
       <c r="H455">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="456" spans="1:8">
@@ -12248,7 +12248,7 @@
         <v>82580.22268280083</v>
       </c>
       <c r="H456">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="457" spans="1:8">
@@ -12274,7 +12274,7 @@
         <v>82580.22268280083</v>
       </c>
       <c r="H457">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="458" spans="1:8">
@@ -12300,7 +12300,7 @@
         <v>82704.50188280083</v>
       </c>
       <c r="H458">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="459" spans="1:8">
@@ -12326,7 +12326,7 @@
         <v>82642.60818280083</v>
       </c>
       <c r="H459">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="460" spans="1:8">
@@ -12352,7 +12352,7 @@
         <v>82914.91428280083</v>
       </c>
       <c r="H460">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="461" spans="1:8">
@@ -12378,7 +12378,7 @@
         <v>83000.81688280083</v>
       </c>
       <c r="H461">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="462" spans="1:8">
@@ -14146,7 +14146,7 @@
         <v>670291.711907395</v>
       </c>
       <c r="H529">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="530" spans="1:8">
@@ -14406,7 +14406,7 @@
         <v>686235.2605685687</v>
       </c>
       <c r="H539">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="540" spans="1:8">
@@ -14432,7 +14432,7 @@
         <v>732587.0216693818</v>
       </c>
       <c r="H540">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="541" spans="1:8">
@@ -14458,7 +14458,7 @@
         <v>770419.4029693818</v>
       </c>
       <c r="H541">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="542" spans="1:8">
@@ -14484,7 +14484,7 @@
         <v>770496.6978693818</v>
       </c>
       <c r="H542">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="543" spans="1:8">
@@ -14510,7 +14510,7 @@
         <v>770655.8799693817</v>
       </c>
       <c r="H543">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="544" spans="1:8">
@@ -14536,7 +14536,7 @@
         <v>767519.7912693818</v>
       </c>
       <c r="H544">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="545" spans="1:8">
@@ -14562,7 +14562,7 @@
         <v>766188.3869693817</v>
       </c>
       <c r="H545">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="546" spans="1:8">
@@ -14588,7 +14588,7 @@
         <v>764012.9569693817</v>
       </c>
       <c r="H546">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="547" spans="1:8">
@@ -14614,7 +14614,7 @@
         <v>764181.3626991533</v>
       </c>
       <c r="H547">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="548" spans="1:8">
@@ -14666,7 +14666,7 @@
         <v>769784.0091014743</v>
       </c>
       <c r="H549">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="550" spans="1:8">
@@ -14692,7 +14692,7 @@
         <v>769696.7352014743</v>
       </c>
       <c r="H550">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="551" spans="1:8">
@@ -14718,7 +14718,7 @@
         <v>768302.7203014743</v>
       </c>
       <c r="H551">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="552" spans="1:8">
@@ -14744,7 +14744,7 @@
         <v>768358.6604014743</v>
       </c>
       <c r="H552">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="553" spans="1:8">
@@ -14796,7 +14796,7 @@
         <v>743753.4781014743</v>
       </c>
       <c r="H554">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="555" spans="1:8">
@@ -14822,7 +14822,7 @@
         <v>743753.4781014743</v>
       </c>
       <c r="H555">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="556" spans="1:8">
@@ -14848,7 +14848,7 @@
         <v>710840.4892014744</v>
       </c>
       <c r="H556">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="557" spans="1:8">
@@ -14874,7 +14874,7 @@
         <v>710840.4892014744</v>
       </c>
       <c r="H557">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="558" spans="1:8">
@@ -15134,7 +15134,7 @@
         <v>718159.5146014742</v>
       </c>
       <c r="H567">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="568" spans="1:8">
@@ -15160,7 +15160,7 @@
         <v>718043.5265014742</v>
       </c>
       <c r="H568">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="569" spans="1:8">
@@ -15212,7 +15212,7 @@
         <v>718493.6265014742</v>
       </c>
       <c r="H570">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="571" spans="1:8">
@@ -15628,7 +15628,7 @@
         <v>714123.6583014742</v>
       </c>
       <c r="H586">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="587" spans="1:8">
@@ -15836,7 +15836,7 @@
         <v>705304.8084014741</v>
       </c>
       <c r="H594">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="595" spans="1:8">
@@ -15862,7 +15862,7 @@
         <v>707031.1112014741</v>
       </c>
       <c r="H595">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="596" spans="1:8">
@@ -15888,7 +15888,7 @@
         <v>706394.0150014741</v>
       </c>
       <c r="H596">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="597" spans="1:8">
@@ -15914,7 +15914,7 @@
         <v>702636.2519014741</v>
       </c>
       <c r="H597">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="598" spans="1:8">
@@ -22440,7 +22440,7 @@
         <v>590269.5253402707</v>
       </c>
       <c r="H848">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="849" spans="1:8">
@@ -22466,7 +22466,7 @@
         <v>590096.3162402707</v>
       </c>
       <c r="H849">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="850" spans="1:8">
@@ -22492,7 +22492,7 @@
         <v>590259.8618402707</v>
       </c>
       <c r="H850">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="851" spans="1:8">
@@ -22518,7 +22518,7 @@
         <v>589945.1376402706</v>
       </c>
       <c r="H851">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="852" spans="1:8">
@@ -22544,7 +22544,7 @@
         <v>590367.3923402707</v>
       </c>
       <c r="H852">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="853" spans="1:8">
@@ -22570,7 +22570,7 @@
         <v>590367.3923402707</v>
       </c>
       <c r="H853">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="854" spans="1:8">
@@ -22596,7 +22596,7 @@
         <v>590360.7868402707</v>
       </c>
       <c r="H854">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="855" spans="1:8">
@@ -22622,7 +22622,7 @@
         <v>588279.3858443638</v>
       </c>
       <c r="H855">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="856" spans="1:8">
@@ -22648,7 +22648,7 @@
         <v>589894.7126443639</v>
       </c>
       <c r="H856">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="857" spans="1:8">
@@ -22674,7 +22674,7 @@
         <v>589576.7291443639</v>
       </c>
       <c r="H857">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="858" spans="1:8">
@@ -22700,7 +22700,7 @@
         <v>589562.3101443639</v>
       </c>
       <c r="H858">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="859" spans="1:8">
@@ -22726,7 +22726,7 @@
         <v>588413.2566198356</v>
       </c>
       <c r="H859">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="860" spans="1:8">
@@ -22752,7 +22752,7 @@
         <v>589666.0346953074</v>
       </c>
       <c r="H860">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="861" spans="1:8">
@@ -23194,7 +23194,7 @@
         <v>593749.5211804064</v>
       </c>
       <c r="H877">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="878" spans="1:8">
@@ -23220,7 +23220,7 @@
         <v>592787.7474804064</v>
       </c>
       <c r="H878">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="879" spans="1:8">
@@ -23246,7 +23246,7 @@
         <v>596650.8515804064</v>
       </c>
       <c r="H879">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="880" spans="1:8">
@@ -23272,7 +23272,7 @@
         <v>596650.8515804064</v>
       </c>
       <c r="H880">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="881" spans="1:8">
@@ -23298,7 +23298,7 @@
         <v>596650.8515804064</v>
       </c>
       <c r="H881">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="882" spans="1:8">
@@ -23324,7 +23324,7 @@
         <v>601840.7263804064</v>
       </c>
       <c r="H882">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="883" spans="1:8">
@@ -23350,7 +23350,7 @@
         <v>601840.7263804064</v>
       </c>
       <c r="H883">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="884" spans="1:8">
@@ -23376,7 +23376,7 @@
         <v>603568.549401827</v>
       </c>
       <c r="H884">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="885" spans="1:8">
@@ -23402,7 +23402,7 @@
         <v>604104.814301827</v>
       </c>
       <c r="H885">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="886" spans="1:8">
@@ -23428,7 +23428,7 @@
         <v>603856.441101827</v>
       </c>
       <c r="H886">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="887" spans="1:8">
@@ -23454,7 +23454,7 @@
         <v>603190.4020018269</v>
       </c>
       <c r="H887">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="888" spans="1:8">
@@ -23480,7 +23480,7 @@
         <v>603206.426301827</v>
       </c>
       <c r="H888">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="889" spans="1:8">
@@ -23506,7 +23506,7 @@
         <v>605206.5311018269</v>
       </c>
       <c r="H889">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="890" spans="1:8">
@@ -23532,7 +23532,7 @@
         <v>605179.5311018269</v>
       </c>
       <c r="H890">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="891" spans="1:8">
@@ -23558,7 +23558,7 @@
         <v>605124.6311018269</v>
       </c>
       <c r="H891">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="892" spans="1:8">
@@ -23766,7 +23766,7 @@
         <v>610256.0328881443</v>
       </c>
       <c r="H899">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="900" spans="1:8">
@@ -23792,7 +23792,7 @@
         <v>611617.7985881442</v>
       </c>
       <c r="H900">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="901" spans="1:8">
@@ -23818,7 +23818,7 @@
         <v>611617.7985881442</v>
       </c>
       <c r="H901">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="902" spans="1:8">
@@ -23844,7 +23844,7 @@
         <v>583118.7892118129</v>
       </c>
       <c r="H902">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="903" spans="1:8">
@@ -23870,7 +23870,7 @@
         <v>583518.7892118129</v>
       </c>
       <c r="H903">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="904" spans="1:8">
@@ -23896,7 +23896,7 @@
         <v>583649.5892118129</v>
       </c>
       <c r="H904">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="905" spans="1:8">
@@ -23922,7 +23922,7 @@
         <v>583649.5892118129</v>
       </c>
       <c r="H905">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="906" spans="1:8">
@@ -23948,7 +23948,7 @@
         <v>578962.814511813</v>
       </c>
       <c r="H906">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="907" spans="1:8">
@@ -23974,7 +23974,7 @@
         <v>579074.498111813</v>
       </c>
       <c r="H907">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="908" spans="1:8">
@@ -24000,7 +24000,7 @@
         <v>581035.7614117762</v>
       </c>
       <c r="H908">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="909" spans="1:8">
@@ -24026,7 +24026,7 @@
         <v>580476.2588117762</v>
       </c>
       <c r="H909">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="910" spans="1:8">
@@ -24052,7 +24052,7 @@
         <v>580476.2588117762</v>
       </c>
       <c r="H910">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="911" spans="1:8">
@@ -24078,7 +24078,7 @@
         <v>581054.8329117761</v>
       </c>
       <c r="H911">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="912" spans="1:8">
@@ -24104,7 +24104,7 @@
         <v>574595.5140117393</v>
       </c>
       <c r="H912">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="913" spans="1:8">
@@ -24130,7 +24130,7 @@
         <v>574672.4455117392</v>
       </c>
       <c r="H913">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="914" spans="1:8">
@@ -27900,7 +27900,7 @@
         <v>525540.9051098839</v>
       </c>
       <c r="H1058">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1059" spans="1:8">
@@ -27926,7 +27926,7 @@
         <v>515611.9719098839</v>
       </c>
       <c r="H1059">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1060" spans="1:8">
@@ -27952,7 +27952,7 @@
         <v>516270.5930098839</v>
       </c>
       <c r="H1060">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1061" spans="1:8">
@@ -27978,7 +27978,7 @@
         <v>516779.7142349823</v>
       </c>
       <c r="H1061">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1062" spans="1:8">
@@ -28004,7 +28004,7 @@
         <v>518307.1322349823</v>
       </c>
       <c r="H1062">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1063" spans="1:8">
@@ -28030,7 +28030,7 @@
         <v>515538.2652349823</v>
       </c>
       <c r="H1063">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1064" spans="1:8">
@@ -28056,7 +28056,7 @@
         <v>508921.8315349823</v>
       </c>
       <c r="H1064">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1065" spans="1:8">
@@ -28082,7 +28082,7 @@
         <v>507946.0137349823</v>
       </c>
       <c r="H1065">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1066" spans="1:8">
@@ -28108,7 +28108,7 @@
         <v>505282.3228349823</v>
       </c>
       <c r="H1066">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1067" spans="1:8">
@@ -28134,7 +28134,7 @@
         <v>508823.4979706273</v>
       </c>
       <c r="H1067">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1068" spans="1:8">
@@ -28160,7 +28160,7 @@
         <v>508581.5152706273</v>
       </c>
       <c r="H1068">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1069" spans="1:8">
@@ -28186,7 +28186,7 @@
         <v>509080.2308706273</v>
       </c>
       <c r="H1069">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1070" spans="1:8">
@@ -28212,7 +28212,7 @@
         <v>507614.3713706273</v>
       </c>
       <c r="H1070">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1071" spans="1:8">
@@ -28238,7 +28238,7 @@
         <v>507601.2397706272</v>
       </c>
       <c r="H1071">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1072" spans="1:8">
@@ -28264,7 +28264,7 @@
         <v>508066.0397706272</v>
       </c>
       <c r="H1072">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1073" spans="1:8">
@@ -28290,7 +28290,7 @@
         <v>515031.0563706272</v>
       </c>
       <c r="H1073">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1074" spans="1:8">
@@ -28316,7 +28316,7 @@
         <v>522119.8587240322</v>
       </c>
       <c r="H1074">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1075" spans="1:8">
@@ -28342,7 +28342,7 @@
         <v>527590.9418240322</v>
       </c>
       <c r="H1075">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1076" spans="1:8">
@@ -28368,7 +28368,7 @@
         <v>532945.6369076329</v>
       </c>
       <c r="H1076">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1077" spans="1:8">
@@ -28394,7 +28394,7 @@
         <v>531834.656407633</v>
       </c>
       <c r="H1077">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1078" spans="1:8">
@@ -28420,7 +28420,7 @@
         <v>532546.6321076329</v>
       </c>
       <c r="H1078">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1079" spans="1:8">
@@ -28446,7 +28446,7 @@
         <v>532546.6321076329</v>
       </c>
       <c r="H1079">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1080" spans="1:8">
@@ -28472,7 +28472,7 @@
         <v>536148.2353076329</v>
       </c>
       <c r="H1080">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1081" spans="1:8">
@@ -28498,7 +28498,7 @@
         <v>537536.0973076329</v>
       </c>
       <c r="H1081">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1082" spans="1:8">
@@ -28524,7 +28524,7 @@
         <v>527517.440789831</v>
       </c>
       <c r="H1082">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1083" spans="1:8">
@@ -28550,7 +28550,7 @@
         <v>521753.001289831</v>
       </c>
       <c r="H1083">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1084" spans="1:8">
@@ -28576,7 +28576,7 @@
         <v>518712.669389831</v>
       </c>
       <c r="H1084">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1085" spans="1:8">
@@ -28602,7 +28602,7 @@
         <v>520268.9868815689</v>
       </c>
       <c r="H1085">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1086" spans="1:8">
@@ -28628,7 +28628,7 @@
         <v>522442.3760065156</v>
       </c>
       <c r="H1086">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1087" spans="1:8">
@@ -28654,7 +28654,7 @@
         <v>526835.9549815689</v>
       </c>
       <c r="H1087">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1088" spans="1:8">
@@ -28680,7 +28680,7 @@
         <v>527799.3374815688</v>
       </c>
       <c r="H1088">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1089" spans="1:8">
@@ -28706,7 +28706,7 @@
         <v>523268.3614815688</v>
       </c>
       <c r="H1089">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1090" spans="1:8">
@@ -28732,7 +28732,7 @@
         <v>522562.8423815688</v>
       </c>
       <c r="H1090">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1091" spans="1:8">
@@ -28758,7 +28758,7 @@
         <v>525324.501000608</v>
       </c>
       <c r="H1091">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1092" spans="1:8">
@@ -28784,7 +28784,7 @@
         <v>524845.223800608</v>
       </c>
       <c r="H1092">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
